--- a/london-youth/budget-template.xlsx
+++ b/london-youth/budget-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://londonyouth1.sharepoint.com/Shared Documents/Delivery/Employabilty/CVC Summer Grants/2023/Application Process/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BeverleyAnim-Antwi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6474CC19-28F8-4BD9-8786-A3F155590C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A33EDE-631F-4ED4-BF08-A24B324C2A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget" sheetId="1" r:id="rId1"/>
@@ -51,6 +51,9 @@
   </definedNames>
   <calcPr calcId="191028" calcMode="autoNoTable"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -58,6 +61,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -86,7 +91,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
-    <t>Summer projects budget template</t>
+    <t>Summer Skills Grants 2025</t>
+  </si>
+  <si>
+    <t>Budget Template</t>
   </si>
   <si>
     <t>Organisation name:</t>
@@ -95,9 +103,6 @@
     <t>[  ]</t>
   </si>
   <si>
-    <t>Proposed activity:</t>
-  </si>
-  <si>
     <t>Start and end dates:</t>
   </si>
   <si>
@@ -182,7 +187,7 @@
     <t>If TRUE then funding = expenditure</t>
   </si>
   <si>
-    <t>Summer Grants 2023</t>
+    <t>Proposed Project:</t>
   </si>
 </sst>
 </file>
@@ -193,7 +198,7 @@
     <numFmt numFmtId="164" formatCode="0%_);\(0%\);&quot;–&quot;_)"/>
     <numFmt numFmtId="165" formatCode="#,##0_);\(#,##0\);\–_);&quot;–&quot;_)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,6 +281,13 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF00B050"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -444,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -543,6 +555,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -558,21 +573,21 @@
   <dxfs count="2">
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -658,9 +673,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -698,9 +713,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -733,26 +748,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -785,26 +783,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -990,56 +971,56 @@
   <dimension ref="C2:Q39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="1.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="61.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.140625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="11.28515625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="1.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.1796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="61.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.1796875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="11.26953125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:17" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="C2" s="34" t="s">
+    <row r="2" spans="3:17" ht="32.5" x14ac:dyDescent="0.35">
+      <c r="C2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="35"/>
+    </row>
+    <row r="3" spans="3:17" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="C3" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="3:17" s="3" customFormat="1" ht="5.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="34"/>
-    </row>
-    <row r="3" spans="3:17" ht="27" x14ac:dyDescent="0.25">
-      <c r="C3" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="3:17" s="3" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="3:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="3:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="3:17" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C8" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="3:17" ht="20.25" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="3:17" ht="20" x14ac:dyDescent="0.35">
       <c r="C10" s="17" t="s">
         <v>5</v>
       </c>
@@ -1060,7 +1041,7 @@
       <c r="P10" s="32"/>
       <c r="Q10" s="33"/>
     </row>
-    <row r="12" spans="3:17" ht="18" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:17" ht="18" x14ac:dyDescent="0.35">
       <c r="C12" s="19" t="s">
         <v>7</v>
       </c>
@@ -1088,7 +1069,7 @@
       <c r="O12" s="19"/>
       <c r="P12" s="19"/>
     </row>
-    <row r="13" spans="3:17" ht="18" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="C13" s="8" t="s">
         <v>13</v>
       </c>
@@ -1107,17 +1088,17 @@
         <v>1</v>
       </c>
       <c r="H13" s="8"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-    </row>
-    <row r="14" spans="3:17" ht="18" x14ac:dyDescent="0.25">
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+    </row>
+    <row r="14" spans="3:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="C14" s="8"/>
       <c r="D14" s="8" t="s">
         <v>16</v>
@@ -1129,17 +1110,17 @@
         <v>0</v>
       </c>
       <c r="H14" s="8"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-    </row>
-    <row r="15" spans="3:17" ht="18" x14ac:dyDescent="0.25">
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+    </row>
+    <row r="15" spans="3:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="C15" s="8"/>
       <c r="D15" s="8" t="s">
         <v>17</v>
@@ -1153,17 +1134,17 @@
         <v>0</v>
       </c>
       <c r="H15" s="8"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-    </row>
-    <row r="16" spans="3:17" ht="18" x14ac:dyDescent="0.25">
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+    </row>
+    <row r="16" spans="3:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="C16" s="8"/>
       <c r="D16" s="8" t="s">
         <v>18</v>
@@ -1177,17 +1158,17 @@
         <v>0</v>
       </c>
       <c r="H16" s="8"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-    </row>
-    <row r="17" spans="3:17" ht="18" x14ac:dyDescent="0.25">
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+    </row>
+    <row r="17" spans="3:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1199,17 +1180,17 @@
         <v>0</v>
       </c>
       <c r="H17" s="8"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-    </row>
-    <row r="18" spans="3:17" ht="18" x14ac:dyDescent="0.25">
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+    </row>
+    <row r="18" spans="3:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1221,17 +1202,17 @@
         <v>0</v>
       </c>
       <c r="H18" s="8"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-    </row>
-    <row r="19" spans="3:17" ht="18" x14ac:dyDescent="0.25">
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+    </row>
+    <row r="19" spans="3:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1243,17 +1224,17 @@
         <v>0</v>
       </c>
       <c r="H19" s="8"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
-    </row>
-    <row r="20" spans="3:17" ht="18" x14ac:dyDescent="0.25">
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+    </row>
+    <row r="20" spans="3:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1265,17 +1246,17 @@
         <v>0</v>
       </c>
       <c r="H20" s="8"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35"/>
-    </row>
-    <row r="21" spans="3:17" ht="18" x14ac:dyDescent="0.25">
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+    </row>
+    <row r="21" spans="3:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1287,17 +1268,17 @@
         <v>0</v>
       </c>
       <c r="H21" s="8"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
-    </row>
-    <row r="22" spans="3:17" ht="18" x14ac:dyDescent="0.25">
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+    </row>
+    <row r="22" spans="3:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1309,17 +1290,17 @@
         <v>0</v>
       </c>
       <c r="H22" s="8"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
-    </row>
-    <row r="23" spans="3:17" ht="18" x14ac:dyDescent="0.25">
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+    </row>
+    <row r="23" spans="3:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1331,17 +1312,17 @@
         <v>0</v>
       </c>
       <c r="H23" s="8"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
-    </row>
-    <row r="24" spans="3:17" ht="18" x14ac:dyDescent="0.25">
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
+    </row>
+    <row r="24" spans="3:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1353,17 +1334,17 @@
         <v>0</v>
       </c>
       <c r="H24" s="8"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
-    </row>
-    <row r="25" spans="3:17" ht="18" x14ac:dyDescent="0.25">
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="36"/>
+    </row>
+    <row r="25" spans="3:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1375,17 +1356,17 @@
         <v>0</v>
       </c>
       <c r="H25" s="8"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
-    </row>
-    <row r="26" spans="3:17" ht="18" x14ac:dyDescent="0.25">
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="36"/>
+    </row>
+    <row r="26" spans="3:17" ht="18" x14ac:dyDescent="0.35">
       <c r="C26" s="22" t="s">
         <v>19</v>
       </c>
@@ -1409,7 +1390,7 @@
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
     </row>
-    <row r="27" spans="3:17" ht="18" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1425,7 +1406,7 @@
       <c r="O27" s="8"/>
       <c r="P27" s="8"/>
     </row>
-    <row r="30" spans="3:17" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:17" ht="20" x14ac:dyDescent="0.35">
       <c r="C30" s="18" t="s">
         <v>20</v>
       </c>
@@ -1445,7 +1426,7 @@
       <c r="P30" s="32"/>
       <c r="Q30" s="33"/>
     </row>
-    <row r="32" spans="3:17" ht="18" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:17" ht="18" x14ac:dyDescent="0.35">
       <c r="C32" s="19" t="s">
         <v>7</v>
       </c>
@@ -1473,15 +1454,15 @@
       <c r="O32" s="19"/>
       <c r="P32" s="19"/>
     </row>
-    <row r="33" spans="3:16" ht="18" x14ac:dyDescent="0.25">
-      <c r="C33" s="8" t="s">
+    <row r="33" spans="3:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="C33" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="34" t="s">
         <v>22</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33" s="26">
         <v>750</v>
@@ -1500,7 +1481,7 @@
       <c r="O33" s="8"/>
       <c r="P33" s="8"/>
     </row>
-    <row r="34" spans="3:16" ht="18" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:16" ht="17.5" x14ac:dyDescent="0.35">
       <c r="C34" s="8" t="s">
         <v>23</v>
       </c>
@@ -1508,7 +1489,7 @@
         <v>24</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34" s="26">
         <v>0</v>
@@ -1527,7 +1508,7 @@
       <c r="O34" s="8"/>
       <c r="P34" s="8"/>
     </row>
-    <row r="35" spans="3:16" ht="18" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:16" ht="17.5" x14ac:dyDescent="0.35">
       <c r="C35" s="8" t="s">
         <v>25</v>
       </c>
@@ -1535,7 +1516,7 @@
         <v>26</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35" s="26">
         <v>0</v>
@@ -1554,7 +1535,7 @@
       <c r="O35" s="8"/>
       <c r="P35" s="8"/>
     </row>
-    <row r="36" spans="3:16" ht="18" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:16" ht="17.5" x14ac:dyDescent="0.35">
       <c r="C36" s="8" t="s">
         <v>27</v>
       </c>
@@ -1562,7 +1543,7 @@
         <v>28</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36" s="26">
         <v>0</v>
@@ -1581,7 +1562,7 @@
       <c r="O36" s="8"/>
       <c r="P36" s="8"/>
     </row>
-    <row r="37" spans="3:16" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:16" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="C37" s="22" t="s">
         <v>29</v>
       </c>
@@ -1605,7 +1586,7 @@
       <c r="O37" s="7"/>
       <c r="P37" s="7"/>
     </row>
-    <row r="38" spans="3:16" ht="18" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:16" ht="17.5" x14ac:dyDescent="0.35">
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -1621,7 +1602,7 @@
       <c r="O38" s="8"/>
       <c r="P38" s="8"/>
     </row>
-    <row r="39" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:16" ht="17.5" x14ac:dyDescent="0.35">
       <c r="C39" s="27" t="s">
         <v>30</v>
       </c>
@@ -1650,11 +1631,11 @@
     <mergeCell ref="I13:Q25"/>
   </mergeCells>
   <conditionalFormatting sqref="F39">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1665,58 +1646,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010036CF3F84F056D74D818EB65583F210CD" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="58fa6844da7ca64b2a752fe1efe8f0a4">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3795fb6b-72da-42bf-89c2-2c41d718d404" xmlns:ns3="f960e734-b488-49a0-bcdc-279f0dff28e5" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="404457b6b10f63dbdc535f41e0dcf3a1" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010036CF3F84F056D74D818EB65583F210CD" ma:contentTypeVersion="22" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9185b25e12de13791a94f4023c2bd296">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3795fb6b-72da-42bf-89c2-2c41d718d404" xmlns:ns3="f960e734-b488-49a0-bcdc-279f0dff28e5" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="32d42beeece16d94a818512d2f57b34a" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="3795fb6b-72da-42bf-89c2-2c41d718d404"/>
     <xsd:import namespace="f960e734-b488-49a0-bcdc-279f0dff28e5"/>
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v4"/>
@@ -1745,6 +1676,8 @@
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1820,6 +1753,16 @@
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="28" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="29" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f960e734-b488-49a0-bcdc-279f0dff28e5" elementFormDefault="qualified">
@@ -1993,23 +1936,64 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
-    <_dlc_DocId xmlns="f960e734-b488-49a0-bcdc-279f0dff28e5">CEX5WWDRJUFA-2102554853-894705</_dlc_DocId>
+    <_dlc_DocId xmlns="f960e734-b488-49a0-bcdc-279f0dff28e5">CEX5WWDRJUFA-2102554853-1091328</_dlc_DocId>
     <_dlc_DocIdUrl xmlns="f960e734-b488-49a0-bcdc-279f0dff28e5">
-      <Url>https://londonyouth1.sharepoint.com/_layouts/15/DocIdRedir.aspx?ID=CEX5WWDRJUFA-2102554853-894705</Url>
-      <Description>CEX5WWDRJUFA-2102554853-894705</Description>
+      <Url>https://londonyouth1.sharepoint.com/_layouts/15/DocIdRedir.aspx?ID=CEX5WWDRJUFA-2102554853-1091328</Url>
+      <Description>CEX5WWDRJUFA-2102554853-1091328</Description>
     </_dlc_DocIdUrl>
     <SharedWithUsers xmlns="f960e734-b488-49a0-bcdc-279f0dff28e5">
       <UserInfo>
@@ -2028,16 +2012,17 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1591D37-0CF1-4A8D-88B0-0EE94E14EB66}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FF451F0-9730-492D-8F57-49DB956E80E6}">
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4E7E186-C437-4D7E-87FC-F2995D2E0203}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -2056,28 +2041,30 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1591D37-0CF1-4A8D-88B0-0EE94E14EB66}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E56A476-5E5A-4446-9731-6CCEEE1697B0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+    <ds:schemaRef ds:uri="f960e734-b488-49a0-bcdc-279f0dff28e5"/>
+    <ds:schemaRef ds:uri="3795fb6b-72da-42bf-89c2-2c41d718d404"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FA3912E-6748-410F-8217-41DFB623FC67}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E56A476-5E5A-4446-9731-6CCEEE1697B0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-    <ds:schemaRef ds:uri="f960e734-b488-49a0-bcdc-279f0dff28e5"/>
-    <ds:schemaRef ds:uri="3795fb6b-72da-42bf-89c2-2c41d718d404"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>